--- a/medicine/Sexualité et sexologie/Je_t'aime_moi_non_plus_(film)/Je_t'aime_moi_non_plus_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Je_t'aime_moi_non_plus_(film)/Je_t'aime_moi_non_plus_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je t'aime moi non plus est un film français écrit et réalisé par Serge Gainsbourg, sorti en 1976. La musique du film est créée par ce dernier et le titre du film est issu d'une de ses chansons.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johnny (Jane Birkin), serveuse dans un bar pour routiers au milieu de nulle part, mène une vie solitaire dans laquelle elle s'ennuie. Elle tombe amoureuse du conducteur d'un camion à benne, Krassky (Joe Dallesandro), faisant fi des mises en garde de son patron Boris (Reinhard Kolldehoff), qui lui dit que ce dernier est homosexuel. En raison de l'allure androgyne de la jeune femme, Krassky est néanmoins lui aussi attiré par elle. Leurs amours sont toutefois contrariées par la jalousie du petit ami de Krassky, Padovan (Hugues Quester).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je t'aime moi non plus
 Réalisation et scénario : Serge Gainsbourg
@@ -550,7 +566,7 @@
 Photographie : Willy Kurant
 Cadreur : Yann Le Masson
 Son : Antoine Bonfanti
-Musique : Serge Gainsbourg (BOF publiée sur LP Philips réf. 9101 030)[1]
+Musique : Serge Gainsbourg (BOF publiée sur LP Philips réf. 9101 030)
 Décors : Théobald Meurisse
 Montage : Kenout Peltier
 Pays d'origine : France
@@ -562,7 +578,7 @@
 Genre : drame
 Durée : 83 minutes
 Date de sortie : 10 mars 1976
-Classification CNC : Initialement « interdit aux moins de 18 ans »[2], puis « interdit aux moins de 16 ans[Note 1]»[3]</t>
+Classification CNC : Initialement « interdit aux moins de 18 ans », puis « interdit aux moins de 16 ans[Note 1]»</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jane Birkin : Johnny
 Joe Dallesandro : Krassky
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,8 +655,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nominations
-César 1977 : Meilleure musique écrite pour un film pour Serge Gainsbourg et Meilleur son pour Antoine Bonfanti</t>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>César 1977 : Meilleure musique écrite pour un film pour Serge Gainsbourg et Meilleur son pour Antoine Bonfanti</t>
         </is>
       </c>
     </row>
@@ -648,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Je_t%27aime_moi_non_plus_(film)</t>
+          <t>Je_t'aime_moi_non_plus_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,10 +689,12 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour les besoins du film, Jane Birkin a coupé sa longue chevelure pour avoir un air le plus masculin possible et créer un style androgyne.
-Le film fut défendu par François Truffaut[4].
+Le film fut défendu par François Truffaut.
 Le film fut dédié à Boris Vian.
 Je t'aime moi non plus est le premier film de Gainsbourg. Au moment du tournage, Jane Birkin est réellement sa partenaire à la ville. Le film réunit des éléments récurrents du monde gainsbourgien comme la mort et le sexe. À noter une apparition de Gérard Depardieu jouant un paysan homosexuel.</t>
         </is>
